--- a/Assignment 3 Optimizing Flow Shop/FlowShopAssignmentData.xlsx
+++ b/Assignment 3 Optimizing Flow Shop/FlowShopAssignmentData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.org.aalto.fi\eniemi\data\Documents\Kurssit\MEC-E7001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Production-Systems-Modelling\Assignment 3 Optimizing Flow Shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF45B6B-A7C7-40E5-9768-8DBD6B5A8AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="285" windowWidth="27795" windowHeight="12075"/>
+    <workbookView xWindow="7416" yWindow="1488" windowWidth="14568" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Order#</t>
-  </si>
-  <si>
-    <t>Group</t>
   </si>
   <si>
     <t>Processing times/step</t>
@@ -40,11 +35,14 @@
   <si>
     <t>Due date</t>
   </si>
+  <si>
+    <t>Group#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,9 +92,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -134,9 +132,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,7 +169,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,35 +377,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -422,10 +415,10 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -448,7 +441,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -471,7 +464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -494,7 +487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -517,7 +510,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -540,7 +533,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -563,7 +556,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -586,7 +579,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -609,7 +602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -632,7 +625,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -655,7 +648,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -678,7 +671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -701,7 +694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -724,7 +717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -747,7 +740,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -770,7 +763,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -793,7 +786,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -816,7 +809,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -839,7 +832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -862,7 +855,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -885,7 +878,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -908,7 +901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -931,7 +924,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -954,7 +947,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3</v>
       </c>
@@ -977,7 +970,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1000,7 +993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1023,7 +1016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1046,7 +1039,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1069,7 +1062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1092,7 +1085,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1115,7 +1108,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1138,7 +1131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1161,7 +1154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1184,7 +1177,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1207,7 +1200,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1230,7 +1223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1253,7 +1246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1276,7 +1269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1299,7 +1292,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1322,7 +1315,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1345,7 +1338,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1368,7 +1361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1391,7 +1384,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1414,7 +1407,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1437,7 +1430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1460,7 +1453,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1483,7 +1476,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1506,7 +1499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1529,7 +1522,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1552,7 +1545,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1575,7 +1568,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6</v>
       </c>
@@ -1598,7 +1591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6</v>
       </c>
@@ -1621,7 +1614,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6</v>
       </c>
@@ -1644,7 +1637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6</v>
       </c>
@@ -1667,7 +1660,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>6</v>
       </c>
@@ -1690,7 +1683,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -1713,7 +1706,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6</v>
       </c>
@@ -1736,7 +1729,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6</v>
       </c>
@@ -1759,7 +1752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1782,7 +1775,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6</v>
       </c>
@@ -1805,7 +1798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>7</v>
       </c>
@@ -1828,7 +1821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>7</v>
       </c>
@@ -1851,7 +1844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -1874,7 +1867,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>7</v>
       </c>
@@ -1897,7 +1890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>7</v>
       </c>
@@ -1920,7 +1913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>7</v>
       </c>
@@ -1943,7 +1936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>7</v>
       </c>
@@ -1966,7 +1959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>7</v>
       </c>
@@ -1989,7 +1982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>7</v>
       </c>
@@ -2012,7 +2005,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7</v>
       </c>
@@ -2035,7 +2028,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>8</v>
       </c>
@@ -2058,7 +2051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>8</v>
       </c>
@@ -2081,7 +2074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>8</v>
       </c>
@@ -2104,7 +2097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>8</v>
       </c>
@@ -2127,7 +2120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>8</v>
       </c>
@@ -2150,7 +2143,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>8</v>
       </c>
@@ -2173,7 +2166,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>8</v>
       </c>
@@ -2196,7 +2189,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>8</v>
       </c>
@@ -2219,7 +2212,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2242,7 +2235,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8</v>
       </c>
@@ -2265,7 +2258,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>9</v>
       </c>
@@ -2288,7 +2281,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>9</v>
       </c>
@@ -2311,7 +2304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>9</v>
       </c>
@@ -2334,7 +2327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>9</v>
       </c>
@@ -2357,7 +2350,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>9</v>
       </c>
@@ -2380,7 +2373,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>9</v>
       </c>
@@ -2403,7 +2396,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>9</v>
       </c>
@@ -2426,7 +2419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>9</v>
       </c>
@@ -2449,7 +2442,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>9</v>
       </c>
@@ -2472,7 +2465,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9</v>
       </c>
@@ -2495,7 +2488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>10</v>
       </c>
@@ -2518,7 +2511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>10</v>
       </c>
@@ -2541,7 +2534,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>10</v>
       </c>
@@ -2564,7 +2557,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>10</v>
       </c>
@@ -2587,7 +2580,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>10</v>
       </c>
@@ -2610,7 +2603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>10</v>
       </c>
@@ -2633,7 +2626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>10</v>
       </c>
@@ -2656,7 +2649,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>10</v>
       </c>
@@ -2679,7 +2672,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>10</v>
       </c>
@@ -2702,7 +2695,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>10</v>
       </c>
@@ -2725,7 +2718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>11</v>
       </c>
@@ -2748,7 +2741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>11</v>
       </c>
@@ -2771,7 +2764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>11</v>
       </c>
@@ -2794,7 +2787,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>11</v>
       </c>
@@ -2817,7 +2810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>11</v>
       </c>
@@ -2840,7 +2833,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>11</v>
       </c>
@@ -2863,7 +2856,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>11</v>
       </c>
@@ -2886,7 +2879,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>11</v>
       </c>
@@ -2909,7 +2902,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>11</v>
       </c>
@@ -2932,7 +2925,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>11</v>
       </c>
@@ -2955,7 +2948,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>12</v>
       </c>
@@ -2978,7 +2971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>12</v>
       </c>
@@ -3001,7 +2994,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>12</v>
       </c>
@@ -3024,7 +3017,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>12</v>
       </c>
@@ -3047,7 +3040,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>12</v>
       </c>
@@ -3070,7 +3063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>12</v>
       </c>
@@ -3093,7 +3086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>12</v>
       </c>
@@ -3116,7 +3109,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>12</v>
       </c>
@@ -3139,7 +3132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -3162,7 +3155,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>12</v>
       </c>
@@ -3185,7 +3178,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>13</v>
       </c>
@@ -3208,7 +3201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>13</v>
       </c>
@@ -3231,7 +3224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>13</v>
       </c>
@@ -3254,7 +3247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>13</v>
       </c>
@@ -3277,7 +3270,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>13</v>
       </c>
@@ -3300,7 +3293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>13</v>
       </c>
@@ -3323,7 +3316,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>13</v>
       </c>
@@ -3346,7 +3339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>13</v>
       </c>
@@ -3369,7 +3362,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>13</v>
       </c>
@@ -3392,7 +3385,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>13</v>
       </c>
@@ -3415,7 +3408,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>14</v>
       </c>
@@ -3438,7 +3431,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>14</v>
       </c>
@@ -3461,7 +3454,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>14</v>
       </c>
@@ -3484,7 +3477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>14</v>
       </c>
@@ -3507,7 +3500,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>14</v>
       </c>
@@ -3530,7 +3523,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>14</v>
       </c>
@@ -3553,7 +3546,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -3576,7 +3569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>14</v>
       </c>
@@ -3599,7 +3592,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>14</v>
       </c>
@@ -3622,7 +3615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14</v>
       </c>
@@ -3645,7 +3638,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>15</v>
       </c>
@@ -3668,7 +3661,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>15</v>
       </c>
@@ -3691,7 +3684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>15</v>
       </c>
@@ -3714,7 +3707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>15</v>
       </c>
@@ -3737,7 +3730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>15</v>
       </c>
@@ -3760,7 +3753,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>15</v>
       </c>
@@ -3783,7 +3776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>15</v>
       </c>
@@ -3806,7 +3799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>15</v>
       </c>
@@ -3829,7 +3822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>15</v>
       </c>
@@ -3852,7 +3845,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>15</v>
       </c>
@@ -3875,7 +3868,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>16</v>
       </c>
@@ -3898,7 +3891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>16</v>
       </c>
@@ -3921,7 +3914,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>16</v>
       </c>
@@ -3944,7 +3937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>16</v>
       </c>
@@ -3967,7 +3960,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>16</v>
       </c>
@@ -3990,7 +3983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>16</v>
       </c>
@@ -4013,7 +4006,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>16</v>
       </c>
@@ -4036,7 +4029,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>16</v>
       </c>
@@ -4059,7 +4052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>16</v>
       </c>
@@ -4082,7 +4075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>16</v>
       </c>
@@ -4105,7 +4098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>17</v>
       </c>
@@ -4128,7 +4121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>17</v>
       </c>
@@ -4151,7 +4144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>17</v>
       </c>
@@ -4174,7 +4167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>17</v>
       </c>
@@ -4197,7 +4190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>17</v>
       </c>
@@ -4220,7 +4213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>17</v>
       </c>
@@ -4243,7 +4236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>17</v>
       </c>
@@ -4266,7 +4259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>17</v>
       </c>
@@ -4289,7 +4282,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>17</v>
       </c>
@@ -4312,7 +4305,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>17</v>
       </c>
@@ -4335,7 +4328,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>18</v>
       </c>
@@ -4358,7 +4351,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>18</v>
       </c>
@@ -4381,7 +4374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>18</v>
       </c>
@@ -4404,7 +4397,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>18</v>
       </c>
@@ -4427,7 +4420,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>18</v>
       </c>
@@ -4450,7 +4443,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>18</v>
       </c>
@@ -4473,7 +4466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>18</v>
       </c>
@@ -4496,7 +4489,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>18</v>
       </c>
@@ -4519,7 +4512,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>18</v>
       </c>
@@ -4542,7 +4535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>18</v>
       </c>
@@ -4565,7 +4558,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>19</v>
       </c>
@@ -4588,7 +4581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>19</v>
       </c>
@@ -4611,7 +4604,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>19</v>
       </c>
@@ -4634,7 +4627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>19</v>
       </c>
@@ -4657,7 +4650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>19</v>
       </c>
@@ -4680,7 +4673,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>19</v>
       </c>
@@ -4703,7 +4696,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>19</v>
       </c>
@@ -4726,7 +4719,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>19</v>
       </c>
@@ -4749,7 +4742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>19</v>
       </c>
@@ -4772,7 +4765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>19</v>
       </c>
@@ -4795,7 +4788,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>20</v>
       </c>
@@ -4818,7 +4811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>20</v>
       </c>
@@ -4841,7 +4834,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>20</v>
       </c>
@@ -4864,7 +4857,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>20</v>
       </c>
@@ -4887,7 +4880,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>20</v>
       </c>
@@ -4910,7 +4903,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>20</v>
       </c>
@@ -4933,7 +4926,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>20</v>
       </c>
@@ -4956,7 +4949,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>20</v>
       </c>
@@ -4979,7 +4972,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>20</v>
       </c>
@@ -5002,7 +4995,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>20</v>
       </c>
@@ -5031,24 +5024,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
